--- a/biology/Zoologie/Agriades/Agriades.xlsx
+++ b/biology/Zoologie/Agriades/Agriades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agriades est un genre de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Agriades a été décrit par l'entomologiste allemand Jakob Hübner en 1819[1].
-L'espèce type pour le genre est Agriades glandon (Prunner, 1798)[2].
-Synonymes[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Agriades a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
+L'espèce type pour le genre est Agriades glandon (Prunner, 1798).
+Synonymes : 
 Albulina Tutt, 1909
 Vacciniina Tutt, 1909
 Latiorina Tutt, 1909
@@ -523,7 +537,7 @@
 Mestore Koçak &amp; Kemal, 2007
 Xinjiangia Huang &amp; Murayama, 1988
 Certains auteurs, notamment au début du XXIe siècle, considèrent Agriades comme un synonyme de Plebejus.
-Des études de phylogénétique moléculaire ont cependant confirmé la validité du genre Agriades et ont précisé sa position systématique : elles ont montré qu’Agriades s. str. n'est pas étroitement apparenté à Plebejus s. str., mais est le groupe frère de l'espèce nommée jusque là Vacciniina optilete, leur regroupement étant le groupe frère du groupe Albulina. Ces taxons ont alors été regroupés, les noms Albulina et Vacciniina étant mis en synonymie avec Agriades[3].
+Des études de phylogénétique moléculaire ont cependant confirmé la validité du genre Agriades et ont précisé sa position systématique : elles ont montré qu’Agriades s. str. n'est pas étroitement apparenté à Plebejus s. str., mais est le groupe frère de l'espèce nommée jusque là Vacciniina optilete, leur regroupement étant le groupe frère du groupe Albulina. Ces taxons ont alors été regroupés, les noms Albulina et Vacciniina étant mis en synonymie avec Agriades.
 </t>
         </is>
       </c>
@@ -552,11 +566,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste suivante suit la division en groupes d’espèces du site Funet[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante suit la division en groupes d’espèces du site Funet :
 Groupe aquilo :
-Agriades podarce (C. &amp; R. Felder, [1865]) — Californie, Colorado, Nevada
+Agriades podarce (C. &amp; R. Felder, ) — Californie, Colorado, Nevada
 Agriades glandon (de Prunner, 1798) — l’Azuré des soldanelles — Alpes, Pyrénées, Asie centrale, Sibérie, Amérique du Nord
 Agriades aquilo (Boisduval, 1832) — Europe arctique — parfois considéré comme une sous-espèce d’Agriades glandon
 Agriades cassiope Emmel &amp; Emmel, 1998 — Californie — parfois considéré comme une sous-espèce d’Agriades glandon
@@ -565,7 +581,7 @@
 Agriades ellisi (Marshall, 1882) — Himalaya
 Agriades errans (Riley, 1927) — Himalaya
 Agriades janigena (Riley, 1923) — Tibet
-Agriades jaloka Moore, [1875]) — Himalaya, Baltistan, Cachemire
+Agriades jaloka Moore, ) — Himalaya, Baltistan, Cachemire
 Agriades kurtjohnsoni Bálint, 1997 — Himalaya
 Agriades morsheadi (Evans, 1923) — Tibet
 Groupe pyrenaica :
@@ -627,7 +643,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les imagos des espèces du genre Agriades sont des petits papillons dont le dessus des ailes est généralement bleu ou gris chez les mâles, et brun ou gris-brun chez les femelles. Le revers des ailes est généralement gris ou beige, orné d'une ponctuation souvent moins marquée que chez les genres voisins, parfois réduite à de simples taches blanches à l'aile postérieure, comme chez A. orbitulus.
 </t>
@@ -658,9 +676,11 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Agriades se rencontrent dans les milieux froids des écozones paléarctique (en Eurasie) et néarctique (en Amérique du Nord), notamment dans les chaînes de montagnes et dans les régions arctiques et subarctiques[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Agriades se rencontrent dans les milieux froids des écozones paléarctique (en Eurasie) et néarctique (en Amérique du Nord), notamment dans les chaînes de montagnes et dans les régions arctiques et subarctiques.
 </t>
         </is>
       </c>
